--- a/src/main/resources/template/excel/export/DeliverForms.xlsx
+++ b/src/main/resources/template/excel/export/DeliverForms.xlsx
@@ -119,10 +119,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>制单人员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.createUserName}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -151,22 +147,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作人员</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.updateUserName}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.updateTime}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>终止人</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -184,6 +164,26 @@
   </si>
   <si>
     <t>${obj.downloadNum}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.createTime}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.validTime}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -318,6 +318,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +630,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -640,13 +643,15 @@
     <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="9" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="13.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="13.375" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -675,28 +680,28 @@
         <v>13</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -710,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>8</v>
@@ -725,34 +730,34 @@
         <v>14</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576 E1:F1048576 C1:C1048576 J1:J2 L1:L2 N1:N2 P1:P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P2 E1:F1048576 C1:C1048576 K1:K2 N1:N2 H1:H1048576"/>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
